--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value275.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value275.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6319924880000091</v>
+        <v>1.614623665809631</v>
       </c>
       <c r="B1">
-        <v>1.213802472671748</v>
+        <v>1.799251675605774</v>
       </c>
       <c r="C1">
-        <v>2.627476579718948</v>
+        <v>1.82830798625946</v>
       </c>
       <c r="D1">
-        <v>3.013051276581312</v>
+        <v>2.371037721633911</v>
       </c>
       <c r="E1">
-        <v>1.454532707568422</v>
+        <v>3.852776050567627</v>
       </c>
     </row>
   </sheetData>
